--- a/_content/john-abbott-college/computerized-systems/lectures/09-excel-but-fancier/excels/social-media.xlsx
+++ b/_content/john-abbott-college/computerized-systems/lectures/09-excel-but-fancier/excels/social-media.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethpoggie/Documents/repos/elizabeth-poggie/_content/john-abbott-college/computerized-systems/lectures/09-excel-but-fancier/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B66F52-FE29-5D4E-BC6C-67F6FAEC1707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA47EBCA-AC87-DB49-A039-AB5AFD79C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-4880" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -413,6 +413,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,7 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="266" zoomScaleNormal="266" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1927,11 +1927,11 @@
       <c r="A1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" s="15" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
@@ -2024,10 +2024,10 @@
     </row>
     <row r="10" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:4" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="21" t="s">
@@ -2037,7 +2037,7 @@
         <f>_xlfn.STDEV.S(C4:C9)</f>
         <v>0.12760368333241795</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
         <f>_xlfn.STDEV.S(D4:D9)</f>
         <v>4.8115139682501751E-2</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="23" t="s">
         <v>18</v>
       </c>
     </row>
